--- a/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Vial Number</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Crew</t>
   </si>
   <si>
@@ -66,6 +63,15 @@
   </si>
   <si>
     <t>Collection</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -109,35 +115,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -151,23 +139,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="Vial Number"/>
-    <tableColumn id="3" name="PIT Scanned"/>
-    <tableColumn id="4" name="PIT"/>
-    <tableColumn id="5" name="Length (cm)"/>
-    <tableColumn id="6" name="Weight (g)"/>
-    <tableColumn id="7" name="Precocity (Y/N)"/>
-    <tableColumn id="8" name="Comments"/>
-    <tableColumn id="9" name="Group"/>
-    <tableColumn id="10" name="Origin Pond"/>
-    <tableColumn id="11" name="Destination Pond"/>
-    <tableColumn id="12" name="Crew"/>
-    <tableColumn id="13" name="Stock"/>
-    <tableColumn id="14" name="Collection"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P2" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:P2"/>
+  <tableColumns count="16">
+    <tableColumn id="16" name="Year" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="Month" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Day" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Vial Number" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PIT Scanned" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="PIT" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Length (cm)" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Weight (g)" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Precocity (Y/N)" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Comments" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Group" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Origin Pond" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="Destination Pond" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="Crew" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Stock" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="Collection" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,71 +426,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
+    <sheet name="Sample Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Vial Number</t>
   </si>
@@ -72,6 +73,33 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>LP29</t>
+  </si>
+  <si>
+    <t>LP30</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>BSR</t>
+  </si>
+  <si>
+    <t>2021 Fall Parr</t>
+  </si>
+  <si>
+    <t>Skinny</t>
+  </si>
+  <si>
+    <t>2021 FP</t>
   </si>
 </sst>
 </file>
@@ -115,17 +143,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -144,12 +225,37 @@
   <tableColumns count="16">
     <tableColumn id="16" name="Year" dataCellStyle="Normal"/>
     <tableColumn id="15" name="Month" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Day" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Day" dataDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Vial Number" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PIT Scanned" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="PIT" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Length (cm)" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Weight (g)" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PIT Scanned" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="PIT" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Length (cm)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Weight (g)" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Precocity (Y/N)" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Comments" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Group" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Origin Pond" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="Destination Pond" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="Crew" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Stock" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="Collection" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P2" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:P2"/>
+  <tableColumns count="16">
+    <tableColumn id="16" name="Year" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="Month" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Day" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Vial Number" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PIT Scanned" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="PIT" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Length (cm)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Weight (g)" dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Precocity (Y/N)" dataCellStyle="Normal"/>
     <tableColumn id="8" name="Comments" dataCellStyle="Normal"/>
     <tableColumn id="9" name="Group" dataCellStyle="Normal"/>
@@ -428,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +545,7 @@
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -449,7 +555,7 @@
     <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -503,8 +609,192 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>922222220124</v>
+      </c>
+      <c r="F2" s="4">
+        <v>922222220124</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>332</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>922222220125</v>
+      </c>
+      <c r="F3" s="4">
+        <v>922222220125</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>332</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Vial Number</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>2021 FP</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -123,15 +126,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,74 +148,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -217,56 +182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P2" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:P2"/>
-  <tableColumns count="16">
-    <tableColumn id="16" name="Year" dataCellStyle="Normal"/>
-    <tableColumn id="15" name="Month" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Day" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Vial Number" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PIT Scanned" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="PIT" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Length (cm)" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Weight (g)" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Precocity (Y/N)" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Comments" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Group" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Origin Pond" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="Destination Pond" dataCellStyle="Normal"/>
-    <tableColumn id="12" name="Crew" dataCellStyle="Normal"/>
-    <tableColumn id="13" name="Stock" dataCellStyle="Normal"/>
-    <tableColumn id="14" name="Collection" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P2" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:P2"/>
-  <tableColumns count="16">
-    <tableColumn id="16" name="Year" dataCellStyle="Normal"/>
-    <tableColumn id="15" name="Month" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Day" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Vial Number" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PIT Scanned" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="PIT" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Length (cm)" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Weight (g)" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Precocity (Y/N)" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Comments" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Group" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Origin Pond" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="Destination Pond" dataCellStyle="Normal"/>
-    <tableColumn id="12" name="Crew" dataCellStyle="Normal"/>
-    <tableColumn id="13" name="Stock" dataCellStyle="Normal"/>
-    <tableColumn id="14" name="Collection" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,90 +461,81 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A3:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,155 +558,152 @@
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E4">
         <v>922222220124</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F4">
         <v>922222220124</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G4">
         <v>30.5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H4">
         <v>332</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2021</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C5">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5">
         <v>922222220125</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F5">
         <v>922222220125</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G5">
         <v>30.5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H5">
         <v>332</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Vial Number</t>
   </si>
@@ -102,7 +102,16 @@
     <t>2021 FP</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>922222220125</t>
+  </si>
+  <si>
+    <t>922222220124</t>
   </si>
 </sst>
 </file>
@@ -161,12 +170,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,22 +473,26 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -487,10 +505,10 @@
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -512,15 +530,21 @@
         <v>8</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -532,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P5"/>
+  <dimension ref="A3:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,21 +568,23 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -578,37 +604,43 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -621,41 +653,41 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>922222220124</v>
-      </c>
-      <c r="F4">
-        <v>922222220124</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
         <v>30.5</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>332</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -668,37 +700,37 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>922222220125</v>
-      </c>
-      <c r="F5">
-        <v>922222220125</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
         <v>30.5</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>332</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>19</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>20</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
-    <sheet name="Sample Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +23,331 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg: 1999
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg: Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg: 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. Bonell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg: BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg: 1999 FP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg: AB, CD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Vial Number</t>
   </si>
@@ -75,50 +397,17 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>LP29</t>
-  </si>
-  <si>
-    <t>LP30</t>
-  </si>
-  <si>
-    <t>QS</t>
-  </si>
-  <si>
-    <t>BSR</t>
-  </si>
-  <si>
-    <t>2021 Fall Parr</t>
-  </si>
-  <si>
-    <t>Skinny</t>
-  </si>
-  <si>
-    <t>2021 FP</t>
-  </si>
-  <si>
     <t>Weight (kg)</t>
   </si>
   <si>
     <t>Length (mm)</t>
-  </si>
-  <si>
-    <t>922222220125</t>
-  </si>
-  <si>
-    <t>922222220124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +422,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,7 +482,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,10 +806,10 @@
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -530,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>3</v>
@@ -539,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>10</v>
@@ -551,191 +852,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>30.5</v>
-      </c>
-      <c r="J4">
-        <v>332</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>30.5</v>
-      </c>
-      <c r="J5">
-        <v>332</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
@@ -33,23 +33,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-eg: 1999
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">eg: 1999
 </t>
         </r>
       </text>
@@ -58,23 +47,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-eg: Jan</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>eg: Jan</t>
         </r>
       </text>
     </comment>
@@ -82,23 +60,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-eg: 1</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>eg: 1</t>
         </r>
       </text>
     </comment>
@@ -106,23 +73,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-eg. Bonell</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
         </r>
       </text>
     </comment>
@@ -130,23 +86,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-eg: BSR</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>eg. Bonell</t>
         </r>
       </text>
     </comment>
@@ -154,14 +99,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>eg: BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -174,51 +122,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-eg: AB, CD</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>eg: AB, CD</t>
         </r>
       </text>
     </comment>
@@ -226,23 +139,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Optional, units can be set to either (mm) or (cm)</t>
         </r>
       </text>
     </comment>
@@ -250,23 +152,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Optional, units can be set to either (g) or (kg)</t>
         </r>
       </text>
     </comment>
@@ -274,23 +165,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Optional</t>
         </r>
       </text>
     </comment>
@@ -298,47 +178,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Optional</t>
         </r>
       </text>
     </comment>
@@ -347,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Vial Number</t>
   </si>
@@ -358,12 +203,6 @@
     <t>PIT</t>
   </si>
   <si>
-    <t>Length (cm)</t>
-  </si>
-  <si>
-    <t>Weight (g)</t>
-  </si>
-  <si>
     <t>Origin Pond</t>
   </si>
   <si>
@@ -401,6 +240,9 @@
   </si>
   <si>
     <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>UFID</t>
   </si>
 </sst>
 </file>
@@ -424,7 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -434,7 +275,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -762,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,32 +617,32 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -813,40 +654,37 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit tagging.xlsx
@@ -119,6 +119,32 @@
           </rPr>
           <t xml:space="preserve">
 eg: 1999 FP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
         </r>
       </text>
     </comment>
@@ -278,7 +304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +355,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +639,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,10 +698,10 @@
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
